--- a/test files/photoshoot data template.xlsx
+++ b/test files/photoshoot data template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/AWIM Image Processing/test files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code working folder\AstroWideImageMapper\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="11_F25DC773A252ABDACC1048E4C9D971325BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C86E32C4-0B80-4916-8BB5-A776EDA0483F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837B695-278A-40DF-B715-69ABCF301C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>SE swingset</t>
   </si>
   <si>
-    <t>cam file number</t>
-  </si>
-  <si>
     <t>reference azimuth</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>4534,3314</t>
+  </si>
+  <si>
+    <t>camera file number</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,6 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +586,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +601,7 @@
     <col min="8" max="8" width="7" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.21875" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.77734375" customWidth="1"/>
@@ -626,11 +627,11 @@
       <c r="M1" s="7"/>
       <c r="N1" s="6"/>
       <c r="O1" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -661,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>35</v>
@@ -670,7 +671,7 @@
         <v>36</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>37</v>
@@ -679,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -1186,13 +1187,13 @@
       <c r="M11" s="8">
         <v>14</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="12">
         <v>240</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="21" t="s">
-        <v>48</v>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="21" x14ac:dyDescent="0.4">
@@ -1410,7 +1411,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.4">
